--- a/ml/resultados.xlsx
+++ b/ml/resultados.xlsx
@@ -476,16 +476,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>942.0330900243309</v>
+        <v>941.648499594485</v>
       </c>
       <c r="C2" t="n">
-        <v>13.95496856688823</v>
+        <v>14.33266132095963</v>
       </c>
       <c r="D2" t="n">
-        <v>947.6150774510862</v>
+        <v>947.3815641228688</v>
       </c>
       <c r="E2" t="n">
-        <v>936.4511025975756</v>
+        <v>935.9154350661012</v>
       </c>
     </row>
     <row r="3">
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1029.057797611961</v>
+        <v>1029.171806258189</v>
       </c>
       <c r="C3" t="n">
-        <v>6.393864010264351</v>
+        <v>6.542196503806269</v>
       </c>
       <c r="D3" t="n">
-        <v>1031.615343216067</v>
+        <v>1031.788684859712</v>
       </c>
       <c r="E3" t="n">
-        <v>1026.500252007855</v>
+        <v>1026.554927656667</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1039.608272506083</v>
+        <v>1037.977615571776</v>
       </c>
       <c r="C4" t="n">
-        <v>4.93175621133443</v>
+        <v>4.994760902097197</v>
       </c>
       <c r="D4" t="n">
-        <v>1041.580974990617</v>
+        <v>1039.975519932615</v>
       </c>
       <c r="E4" t="n">
-        <v>1037.635570021549</v>
+        <v>1035.979711210937</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1041.447378094304</v>
+        <v>1044.741419945683</v>
       </c>
       <c r="C5" t="n">
-        <v>10.21824216507905</v>
+        <v>11.96320906192886</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.534674960336</v>
+        <v>1049.526703570455</v>
       </c>
       <c r="E5" t="n">
-        <v>1037.360081228272</v>
+        <v>1039.956136320911</v>
       </c>
     </row>
     <row r="6">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1057.875501868811</v>
+        <v>1057.48675713591</v>
       </c>
       <c r="C6" t="n">
-        <v>6.321680621758998</v>
+        <v>5.569991493540691</v>
       </c>
       <c r="D6" t="n">
-        <v>1060.404174117515</v>
+        <v>1059.714753733326</v>
       </c>
       <c r="E6" t="n">
-        <v>1055.346829620108</v>
+        <v>1055.258760538494</v>
       </c>
     </row>
     <row r="7">
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1158.831132978825</v>
+        <v>1153.195801172311</v>
       </c>
       <c r="C7" t="n">
-        <v>24.99600378781001</v>
+        <v>26.23851309646741</v>
       </c>
       <c r="D7" t="n">
-        <v>1168.829534493949</v>
+        <v>1163.691206410898</v>
       </c>
       <c r="E7" t="n">
-        <v>1148.832731463701</v>
+        <v>1142.700395933724</v>
       </c>
     </row>
     <row r="8">
@@ -590,54 +590,54 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.939834046592</v>
+        <v>1160.502460495646</v>
       </c>
       <c r="C8" t="n">
-        <v>26.25699383175943</v>
+        <v>25.04180926258941</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.442631579296</v>
+        <v>1170.519184200681</v>
       </c>
       <c r="E8" t="n">
-        <v>1157.437036513888</v>
+        <v>1150.48573679061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RandomForestClassifier</t>
+          <t xml:space="preserve"> DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1322.713381995134</v>
+        <v>1313.860178426602</v>
       </c>
       <c r="C9" t="n">
-        <v>31.92158948938673</v>
+        <v>43.70057545353648</v>
       </c>
       <c r="D9" t="n">
-        <v>1335.482017790889</v>
+        <v>1331.340408608016</v>
       </c>
       <c r="E9" t="n">
-        <v>1309.944746199379</v>
+        <v>1296.379948245187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DecisionTreeClassifier</t>
+          <t>RandomForestClassifier</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1335.171938361719</v>
+        <v>1326.859529602595</v>
       </c>
       <c r="C10" t="n">
-        <v>44.53719848316565</v>
+        <v>36.87193292599426</v>
       </c>
       <c r="D10" t="n">
-        <v>1352.986817754986</v>
+        <v>1341.608302772993</v>
       </c>
       <c r="E10" t="n">
-        <v>1317.357058968453</v>
+        <v>1312.110756432198</v>
       </c>
     </row>
     <row r="11">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1359.765369018654</v>
+        <v>1360.565477155988</v>
       </c>
       <c r="C11" t="n">
-        <v>37.10852217484386</v>
+        <v>18.67480558986908</v>
       </c>
       <c r="D11" t="n">
-        <v>1374.608777888591</v>
+        <v>1368.035399391936</v>
       </c>
       <c r="E11" t="n">
-        <v>1344.921960148716</v>
+        <v>1353.095554920041</v>
       </c>
     </row>
     <row r="12">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1420.547120843471</v>
+        <v>1444.570478507705</v>
       </c>
       <c r="C12" t="n">
-        <v>49.07448766427523</v>
+        <v>83.42927554568691</v>
       </c>
       <c r="D12" t="n">
-        <v>1440.176915909181</v>
+        <v>1477.94218872598</v>
       </c>
       <c r="E12" t="n">
-        <v>1400.917325777761</v>
+        <v>1411.19876828943</v>
       </c>
     </row>
   </sheetData>
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938.4373073803731</v>
+        <v>938.597891321979</v>
       </c>
       <c r="C2" t="n">
-        <v>15.58573318062979</v>
+        <v>15.21431862768141</v>
       </c>
       <c r="D2" t="n">
-        <v>944.671600652625</v>
+        <v>944.6836187730515</v>
       </c>
       <c r="E2" t="n">
-        <v>932.2030141081212</v>
+        <v>932.5121638709064</v>
       </c>
     </row>
     <row r="3">
@@ -1005,54 +1005,54 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1028.555465673918</v>
+        <v>1028.671944487952</v>
       </c>
       <c r="C3" t="n">
-        <v>6.953552912760779</v>
+        <v>7.063978882572012</v>
       </c>
       <c r="D3" t="n">
-        <v>1031.336886839022</v>
+        <v>1031.497536040981</v>
       </c>
       <c r="E3" t="n">
-        <v>1025.774044508813</v>
+        <v>1025.846352934924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1042.720589290487</v>
+        <v>1041.654176804542</v>
       </c>
       <c r="C4" t="n">
-        <v>16.77444729701994</v>
+        <v>4.02575937202237</v>
       </c>
       <c r="D4" t="n">
-        <v>1049.430368209295</v>
+        <v>1043.264480553351</v>
       </c>
       <c r="E4" t="n">
-        <v>1036.010810371679</v>
+        <v>1040.043873055733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1043.409570154096</v>
+        <v>1041.760408373591</v>
       </c>
       <c r="C5" t="n">
-        <v>3.213827087159832</v>
+        <v>18.49235219597699</v>
       </c>
       <c r="D5" t="n">
-        <v>1044.69510098896</v>
+        <v>1049.157349251982</v>
       </c>
       <c r="E5" t="n">
-        <v>1042.124039319232</v>
+        <v>1034.3634674952</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1051.42714890711</v>
+        <v>1051.940720376329</v>
       </c>
       <c r="C6" t="n">
-        <v>5.971386287569976</v>
+        <v>6.108840297329175</v>
       </c>
       <c r="D6" t="n">
-        <v>1053.815703422138</v>
+        <v>1054.384256495261</v>
       </c>
       <c r="E6" t="n">
-        <v>1049.038594392082</v>
+        <v>1049.497184257397</v>
       </c>
     </row>
     <row r="7">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.906105685227</v>
+        <v>1129.173830184684</v>
       </c>
       <c r="C7" t="n">
-        <v>25.79761788276344</v>
+        <v>15.63764467499404</v>
       </c>
       <c r="D7" t="n">
-        <v>1144.225152838332</v>
+        <v>1135.428888054682</v>
       </c>
       <c r="E7" t="n">
-        <v>1123.587058532121</v>
+        <v>1122.918772314687</v>
       </c>
     </row>
     <row r="8">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1150.31791847427</v>
+        <v>1155.315369926075</v>
       </c>
       <c r="C8" t="n">
-        <v>19.86266090914843</v>
+        <v>22.70745094780504</v>
       </c>
       <c r="D8" t="n">
-        <v>1158.262982837929</v>
+        <v>1164.398350305197</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.372854110611</v>
+        <v>1146.232389546953</v>
       </c>
     </row>
     <row r="9">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1282.068937550689</v>
+        <v>1261.148905109489</v>
       </c>
       <c r="C9" t="n">
-        <v>32.7124123346662</v>
+        <v>37.56639532440263</v>
       </c>
       <c r="D9" t="n">
-        <v>1295.153902484556</v>
+        <v>1276.17546323925</v>
       </c>
       <c r="E9" t="n">
-        <v>1268.983972616823</v>
+        <v>1246.122346979728</v>
       </c>
     </row>
     <row r="10">
@@ -1138,16 +1138,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1349.018329278183</v>
+        <v>1340.351500405515</v>
       </c>
       <c r="C10" t="n">
-        <v>26.2154802179095</v>
+        <v>54.77242273365485</v>
       </c>
       <c r="D10" t="n">
-        <v>1359.504521365347</v>
+        <v>1362.260469498977</v>
       </c>
       <c r="E10" t="n">
-        <v>1338.53213719102</v>
+        <v>1318.442531312053</v>
       </c>
     </row>
     <row r="11">
@@ -1157,16 +1157,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1400.841362530414</v>
+        <v>1417.669586374696</v>
       </c>
       <c r="C11" t="n">
-        <v>40.37058682613002</v>
+        <v>61.49648747407302</v>
       </c>
       <c r="D11" t="n">
-        <v>1416.989597260866</v>
+        <v>1442.268181364325</v>
       </c>
       <c r="E11" t="n">
-        <v>1384.693127799962</v>
+        <v>1393.070991385067</v>
       </c>
     </row>
     <row r="12">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1428.619505271695</v>
+        <v>1420.967653419843</v>
       </c>
       <c r="C12" t="n">
-        <v>39.23947281823583</v>
+        <v>28.50336307935525</v>
       </c>
       <c r="D12" t="n">
-        <v>1444.315294398989</v>
+        <v>1432.368998651585</v>
       </c>
       <c r="E12" t="n">
-        <v>1412.923716144401</v>
+        <v>1409.566308188101</v>
       </c>
     </row>
   </sheetData>

--- a/ml/resultados.xlsx
+++ b/ml/resultados.xlsx
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.4358475263584</v>
+        <v>939.0947283049472</v>
       </c>
       <c r="C2" t="n">
-        <v>18.73143386670816</v>
+        <v>16.94216969952914</v>
       </c>
       <c r="D2" t="n">
-        <v>947.9284210730417</v>
+        <v>945.8715961847589</v>
       </c>
       <c r="E2" t="n">
-        <v>932.9432739796752</v>
+        <v>932.3178604251356</v>
       </c>
     </row>
     <row r="3">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1024.618738822517</v>
+        <v>1024.755594317984</v>
       </c>
       <c r="C3" t="n">
-        <v>5.569276157836132</v>
+        <v>5.720478823749245</v>
       </c>
       <c r="D3" t="n">
-        <v>1026.846449285651</v>
+        <v>1027.043785847484</v>
       </c>
       <c r="E3" t="n">
-        <v>1022.391028359382</v>
+        <v>1022.467402788484</v>
       </c>
     </row>
     <row r="4">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1040.123600973236</v>
+        <v>1037.260178426602</v>
       </c>
       <c r="C4" t="n">
-        <v>6.373936963797795</v>
+        <v>7.640943522047623</v>
       </c>
       <c r="D4" t="n">
-        <v>1042.673175758755</v>
+        <v>1040.316555835421</v>
       </c>
       <c r="E4" t="n">
-        <v>1037.574026187717</v>
+        <v>1034.203801017783</v>
       </c>
     </row>
     <row r="5">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1041.872082104591</v>
+        <v>1040.745979882588</v>
       </c>
       <c r="C5" t="n">
-        <v>4.821927815966815</v>
+        <v>6.515214841509487</v>
       </c>
       <c r="D5" t="n">
-        <v>1043.800853230977</v>
+        <v>1043.352065819191</v>
       </c>
       <c r="E5" t="n">
-        <v>1039.943310978204</v>
+        <v>1038.139893945984</v>
       </c>
     </row>
     <row r="6">
@@ -1317,54 +1317,54 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1044.867440838721</v>
+        <v>1040.775288343738</v>
       </c>
       <c r="C6" t="n">
-        <v>7.383551512419621</v>
+        <v>3.880730399725143</v>
       </c>
       <c r="D6" t="n">
-        <v>1047.820861443689</v>
+        <v>1042.327580503628</v>
       </c>
       <c r="E6" t="n">
-        <v>1041.914020233753</v>
+        <v>1039.222996183848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1166.107744479203</v>
+        <v>1162.888669228534</v>
       </c>
       <c r="C7" t="n">
-        <v>22.06718832481885</v>
+        <v>15.68002153275733</v>
       </c>
       <c r="D7" t="n">
-        <v>1174.93461980913</v>
+        <v>1169.160677841637</v>
       </c>
       <c r="E7" t="n">
-        <v>1157.280869149275</v>
+        <v>1156.616660615431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169.23648749705</v>
+        <v>1163.903413905478</v>
       </c>
       <c r="C8" t="n">
-        <v>14.1293780264503</v>
+        <v>18.58558246035076</v>
       </c>
       <c r="D8" t="n">
-        <v>1174.88823870763</v>
+        <v>1171.337646889619</v>
       </c>
       <c r="E8" t="n">
-        <v>1163.584736286469</v>
+        <v>1156.469180921338</v>
       </c>
     </row>
     <row r="9">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1324.422708840227</v>
+        <v>1310.18199513382</v>
       </c>
       <c r="C9" t="n">
-        <v>40.56657697999673</v>
+        <v>43.25342831355597</v>
       </c>
       <c r="D9" t="n">
-        <v>1340.649339632226</v>
+        <v>1327.483366459242</v>
       </c>
       <c r="E9" t="n">
-        <v>1308.196078048228</v>
+        <v>1292.880623808398</v>
       </c>
     </row>
     <row r="10">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1340.56901865369</v>
+        <v>1343.603892944039</v>
       </c>
       <c r="C10" t="n">
-        <v>14.53897357498601</v>
+        <v>33.86016428579097</v>
       </c>
       <c r="D10" t="n">
-        <v>1346.384608083684</v>
+        <v>1357.147958658355</v>
       </c>
       <c r="E10" t="n">
-        <v>1334.753429223696</v>
+        <v>1330.059827229722</v>
       </c>
     </row>
     <row r="11">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1347.221208434712</v>
+        <v>1363.088686131387</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4076581979865</v>
+        <v>35.40871296532122</v>
       </c>
       <c r="D11" t="n">
-        <v>1360.984271713907</v>
+        <v>1377.252171317515</v>
       </c>
       <c r="E11" t="n">
-        <v>1333.458145155518</v>
+        <v>1348.925200945258</v>
       </c>
     </row>
     <row r="12">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1426.905271695053</v>
+        <v>1424.411192214112</v>
       </c>
       <c r="C12" t="n">
-        <v>39.62484435984734</v>
+        <v>29.6972603791136</v>
       </c>
       <c r="D12" t="n">
-        <v>1442.755209438992</v>
+        <v>1436.290096365757</v>
       </c>
       <c r="E12" t="n">
-        <v>1411.055333951114</v>
+        <v>1412.532288062466</v>
       </c>
     </row>
   </sheetData>

--- a/ml/resultados.xlsx
+++ b/ml/resultados.xlsx
@@ -731,16 +731,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.2313057583131</v>
+        <v>939.8682887266829</v>
       </c>
       <c r="C2" t="n">
-        <v>16.39485638228886</v>
+        <v>16.59023276277651</v>
       </c>
       <c r="D2" t="n">
-        <v>946.7892483112286</v>
+        <v>946.5043818317935</v>
       </c>
       <c r="E2" t="n">
-        <v>933.6733632053975</v>
+        <v>933.2321956215723</v>
       </c>
     </row>
     <row r="3">
@@ -750,54 +750,54 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1028.349862893051</v>
+        <v>1028.420910204568</v>
       </c>
       <c r="C3" t="n">
-        <v>6.260119958455973</v>
+        <v>6.417909854585936</v>
       </c>
       <c r="D3" t="n">
-        <v>1030.853910876433</v>
+        <v>1030.988074146402</v>
       </c>
       <c r="E3" t="n">
-        <v>1025.845814909669</v>
+        <v>1025.853746262733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1040.332925527953</v>
+        <v>1042.336253041363</v>
       </c>
       <c r="C4" t="n">
-        <v>11.56768373196435</v>
+        <v>4.036387030122115</v>
       </c>
       <c r="D4" t="n">
-        <v>1044.959999020738</v>
+        <v>1043.950807853412</v>
       </c>
       <c r="E4" t="n">
-        <v>1035.705852035167</v>
+        <v>1040.721698229314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1043.371289537713</v>
+        <v>1043.156902097502</v>
       </c>
       <c r="C5" t="n">
-        <v>5.303309018532182</v>
+        <v>11.70004744822328</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.492613145126</v>
+        <v>1047.836921076791</v>
       </c>
       <c r="E5" t="n">
-        <v>1041.2499659303</v>
+        <v>1038.476883118213</v>
       </c>
     </row>
     <row r="6">
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1047.221857573884</v>
+        <v>1047.929643019731</v>
       </c>
       <c r="C6" t="n">
-        <v>6.262997415895132</v>
+        <v>6.984545616496566</v>
       </c>
       <c r="D6" t="n">
-        <v>1049.727056540242</v>
+        <v>1050.72346126633</v>
       </c>
       <c r="E6" t="n">
-        <v>1044.716658607526</v>
+        <v>1045.135824773133</v>
       </c>
     </row>
     <row r="7">
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1154.883815116294</v>
+        <v>1151.111758541655</v>
       </c>
       <c r="C7" t="n">
-        <v>25.51978403719646</v>
+        <v>26.84381188811424</v>
       </c>
       <c r="D7" t="n">
-        <v>1165.091728731173</v>
+        <v>1161.8492832969</v>
       </c>
       <c r="E7" t="n">
-        <v>1144.675901501416</v>
+        <v>1140.374233786409</v>
       </c>
     </row>
     <row r="8">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.961090944484</v>
+        <v>1160.718243093925</v>
       </c>
       <c r="C8" t="n">
-        <v>22.44941624022682</v>
+        <v>21.18277895852143</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.940857440575</v>
+        <v>1169.191354677334</v>
       </c>
       <c r="E8" t="n">
-        <v>1151.981324448393</v>
+        <v>1152.245131510517</v>
       </c>
     </row>
     <row r="9">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1318.677047850771</v>
+        <v>1315.465531224655</v>
       </c>
       <c r="C9" t="n">
-        <v>41.20450064327433</v>
+        <v>35.63590233761403</v>
       </c>
       <c r="D9" t="n">
-        <v>1335.15884810808</v>
+        <v>1329.719892159701</v>
       </c>
       <c r="E9" t="n">
-        <v>1302.195247593461</v>
+        <v>1301.21117028961</v>
       </c>
     </row>
     <row r="10">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1328.058231954582</v>
+        <v>1316.273317112733</v>
       </c>
       <c r="C10" t="n">
-        <v>20.89034481272407</v>
+        <v>40.69741942383973</v>
       </c>
       <c r="D10" t="n">
-        <v>1336.414369879672</v>
+        <v>1332.552284882269</v>
       </c>
       <c r="E10" t="n">
-        <v>1319.702094029493</v>
+        <v>1299.994349343197</v>
       </c>
     </row>
     <row r="11">
@@ -902,16 +902,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1341.750567721006</v>
+        <v>1343.533833468505</v>
       </c>
       <c r="C11" t="n">
-        <v>26.24160222323741</v>
+        <v>30.27563168160148</v>
       </c>
       <c r="D11" t="n">
-        <v>1352.247208610301</v>
+        <v>1355.644086141146</v>
       </c>
       <c r="E11" t="n">
-        <v>1331.253926831711</v>
+        <v>1331.423580795864</v>
       </c>
     </row>
     <row r="12">
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1437.001622060016</v>
+        <v>1415.583941605839</v>
       </c>
       <c r="C12" t="n">
-        <v>66.57107061970075</v>
+        <v>53.93424042866569</v>
       </c>
       <c r="D12" t="n">
-        <v>1463.630050307896</v>
+        <v>1437.157637777306</v>
       </c>
       <c r="E12" t="n">
-        <v>1410.373193812136</v>
+        <v>1394.010245434373</v>
       </c>
     </row>
   </sheetData>
@@ -1496,16 +1496,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>937.6259529602595</v>
+        <v>937.5659367396594</v>
       </c>
       <c r="C2" t="n">
-        <v>16.92179216087646</v>
+        <v>14.66498975594524</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3946698246101</v>
+        <v>943.4319326420375</v>
       </c>
       <c r="E2" t="n">
-        <v>930.8572360959089</v>
+        <v>931.6999408372812</v>
       </c>
     </row>
     <row r="3">
@@ -1515,16 +1515,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1024.458863236264</v>
+        <v>1024.610996205329</v>
       </c>
       <c r="C3" t="n">
-        <v>6.506190992918326</v>
+        <v>6.598947293917913</v>
       </c>
       <c r="D3" t="n">
-        <v>1027.061339633432</v>
+        <v>1027.250575122896</v>
       </c>
       <c r="E3" t="n">
-        <v>1021.856386839097</v>
+        <v>1021.971417287762</v>
       </c>
     </row>
     <row r="4">
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1037.553747190481</v>
+        <v>1035.169350670695</v>
       </c>
       <c r="C4" t="n">
-        <v>7.909775590931042</v>
+        <v>7.788397914247924</v>
       </c>
       <c r="D4" t="n">
-        <v>1040.717657426854</v>
+        <v>1038.284709836395</v>
       </c>
       <c r="E4" t="n">
-        <v>1034.389836954109</v>
+        <v>1032.053991504996</v>
       </c>
     </row>
     <row r="5">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1039.374602380867</v>
+        <v>1036.755172171064</v>
       </c>
       <c r="C5" t="n">
-        <v>15.86766558841611</v>
+        <v>14.28439025263291</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.721668616233</v>
+        <v>1042.468928272118</v>
       </c>
       <c r="E5" t="n">
-        <v>1033.0275361455</v>
+        <v>1031.041416070011</v>
       </c>
     </row>
     <row r="6">
@@ -1572,16 +1572,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1046.811192214112</v>
+        <v>1046.201135442011</v>
       </c>
       <c r="C6" t="n">
-        <v>8.575149649900673</v>
+        <v>8.731877906445812</v>
       </c>
       <c r="D6" t="n">
-        <v>1050.241252074072</v>
+        <v>1049.69388660459</v>
       </c>
       <c r="E6" t="n">
-        <v>1043.381132354152</v>
+        <v>1042.708384279433</v>
       </c>
     </row>
     <row r="7">
@@ -1591,16 +1591,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1139.484121844093</v>
+        <v>1135.040479479946</v>
       </c>
       <c r="C7" t="n">
-        <v>16.37109143092342</v>
+        <v>19.28657620685539</v>
       </c>
       <c r="D7" t="n">
-        <v>1146.032558416462</v>
+        <v>1142.755109962688</v>
       </c>
       <c r="E7" t="n">
-        <v>1132.935685271723</v>
+        <v>1127.325848997204</v>
       </c>
     </row>
     <row r="8">
@@ -1610,16 +1610,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1157.740149557852</v>
+        <v>1159.026664558505</v>
       </c>
       <c r="C8" t="n">
-        <v>27.52118771504275</v>
+        <v>18.02071314678685</v>
       </c>
       <c r="D8" t="n">
-        <v>1168.748624643869</v>
+        <v>1166.23494981722</v>
       </c>
       <c r="E8" t="n">
-        <v>1146.731674471834</v>
+        <v>1151.81837929979</v>
       </c>
     </row>
     <row r="9">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1266.866828872668</v>
+        <v>1291.312084347121</v>
       </c>
       <c r="C9" t="n">
-        <v>35.99923050814506</v>
+        <v>54.99576482994696</v>
       </c>
       <c r="D9" t="n">
-        <v>1281.266521075926</v>
+        <v>1313.3103902791</v>
       </c>
       <c r="E9" t="n">
-        <v>1252.46713666941</v>
+        <v>1269.313778415142</v>
       </c>
     </row>
     <row r="10">
@@ -1648,16 +1648,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1369.590754257908</v>
+        <v>1385.370802919708</v>
       </c>
       <c r="C10" t="n">
-        <v>48.72811939219467</v>
+        <v>41.99686147333566</v>
       </c>
       <c r="D10" t="n">
-        <v>1389.082002014785</v>
+        <v>1402.169547509042</v>
       </c>
       <c r="E10" t="n">
-        <v>1350.09950650103</v>
+        <v>1368.572058330374</v>
       </c>
     </row>
     <row r="11">
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1395.802108678021</v>
+        <v>1397.019626926196</v>
       </c>
       <c r="C11" t="n">
-        <v>37.6841003928758</v>
+        <v>56.78780656168337</v>
       </c>
       <c r="D11" t="n">
-        <v>1410.875748835171</v>
+        <v>1419.73474955087</v>
       </c>
       <c r="E11" t="n">
-        <v>1380.728468520871</v>
+        <v>1374.304504301523</v>
       </c>
     </row>
     <row r="12">
@@ -1686,16 +1686,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1452.789848607732</v>
+        <v>1461.510394701271</v>
       </c>
       <c r="C12" t="n">
-        <v>58.57183375744678</v>
+        <v>49.75115465182982</v>
       </c>
       <c r="D12" t="n">
-        <v>1476.21858211071</v>
+        <v>1481.410856562002</v>
       </c>
       <c r="E12" t="n">
-        <v>1429.361115104753</v>
+        <v>1441.609932840539</v>
       </c>
     </row>
   </sheetData>
@@ -1751,16 +1751,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685.6221343873518</v>
+        <v>693.5016949152542</v>
       </c>
       <c r="C2" t="n">
-        <v>17.53905095388252</v>
+        <v>9.974561435311234</v>
       </c>
       <c r="D2" t="n">
-        <v>692.6377547689049</v>
+        <v>697.4915194893787</v>
       </c>
       <c r="E2" t="n">
-        <v>678.6065140057988</v>
+        <v>689.5118703411298</v>
       </c>
     </row>
     <row r="3">
@@ -1770,54 +1770,54 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>742.0510269831746</v>
+        <v>716.5110694115771</v>
       </c>
       <c r="C3" t="n">
-        <v>11.82966998184158</v>
+        <v>12.20377780233753</v>
       </c>
       <c r="D3" t="n">
-        <v>746.7828949759112</v>
+        <v>721.3925805325121</v>
       </c>
       <c r="E3" t="n">
-        <v>737.3191589904379</v>
+        <v>711.6295582906421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MLPRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.1651332848301</v>
+        <v>746.5359918261792</v>
       </c>
       <c r="C4" t="n">
-        <v>9.047110185895992</v>
+        <v>14.65425744714876</v>
       </c>
       <c r="D4" t="n">
-        <v>757.7839773591885</v>
+        <v>752.3976948050387</v>
       </c>
       <c r="E4" t="n">
-        <v>750.5462892104716</v>
+        <v>740.6742888473196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>754.3396894019022</v>
+        <v>752.9175364694688</v>
       </c>
       <c r="C5" t="n">
-        <v>14.54873750925734</v>
+        <v>8.83928786229758</v>
       </c>
       <c r="D5" t="n">
-        <v>760.1591844056052</v>
+        <v>756.4532516143878</v>
       </c>
       <c r="E5" t="n">
-        <v>748.5201943981992</v>
+        <v>749.3818213245498</v>
       </c>
     </row>
     <row r="6">
@@ -1827,16 +1827,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>786.9177865612648</v>
+        <v>791.8286252354048</v>
       </c>
       <c r="C6" t="n">
-        <v>8.929822663591903</v>
+        <v>4.410031274176134</v>
       </c>
       <c r="D6" t="n">
-        <v>790.4897156267016</v>
+        <v>793.5926377450753</v>
       </c>
       <c r="E6" t="n">
-        <v>783.3458574958281</v>
+        <v>790.0646127257344</v>
       </c>
     </row>
     <row r="7">
@@ -1846,16 +1846,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>840.6246243893459</v>
+        <v>838.9402279614364</v>
       </c>
       <c r="C7" t="n">
-        <v>11.70090573622189</v>
+        <v>20.78957327592297</v>
       </c>
       <c r="D7" t="n">
-        <v>845.3049866838346</v>
+        <v>847.2560572718056</v>
       </c>
       <c r="E7" t="n">
-        <v>835.9442620948571</v>
+        <v>830.6243986510673</v>
       </c>
     </row>
     <row r="8">
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>870.1512101184709</v>
+        <v>878.2493337167858</v>
       </c>
       <c r="C8" t="n">
-        <v>23.24434288754308</v>
+        <v>27.99011586054397</v>
       </c>
       <c r="D8" t="n">
-        <v>879.4489472734881</v>
+        <v>889.4453800610034</v>
       </c>
       <c r="E8" t="n">
-        <v>860.8534729634537</v>
+        <v>867.0532873725682</v>
       </c>
     </row>
     <row r="9">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>942.4229249011858</v>
+        <v>941.9566854990584</v>
       </c>
       <c r="C9" t="n">
-        <v>40.74243588448039</v>
+        <v>27.41257399140767</v>
       </c>
       <c r="D9" t="n">
-        <v>958.7198992549779</v>
+        <v>952.9217150956215</v>
       </c>
       <c r="E9" t="n">
-        <v>926.1259505473936</v>
+        <v>930.9916559024953</v>
       </c>
     </row>
     <row r="10">
@@ -1903,16 +1903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>958.0984189723321</v>
+        <v>957.4188323917137</v>
       </c>
       <c r="C10" t="n">
-        <v>35.52672123044928</v>
+        <v>45.8175043899934</v>
       </c>
       <c r="D10" t="n">
-        <v>972.3091074645117</v>
+        <v>975.7458341477111</v>
       </c>
       <c r="E10" t="n">
-        <v>943.8877304801524</v>
+        <v>939.0918306357164</v>
       </c>
     </row>
     <row r="11">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>990.6972990777339</v>
+        <v>981.923289391086</v>
       </c>
       <c r="C11" t="n">
-        <v>24.59031122538083</v>
+        <v>26.03682344298079</v>
       </c>
       <c r="D11" t="n">
-        <v>1000.533423567886</v>
+        <v>992.3380187682783</v>
       </c>
       <c r="E11" t="n">
-        <v>980.8611745875816</v>
+        <v>971.5085600138937</v>
       </c>
     </row>
     <row r="12">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1004.300395256917</v>
+        <v>1074.329566854991</v>
       </c>
       <c r="C12" t="n">
-        <v>63.95602566608129</v>
+        <v>94.09366889982732</v>
       </c>
       <c r="D12" t="n">
-        <v>1029.88280552335</v>
+        <v>1111.967034414921</v>
       </c>
       <c r="E12" t="n">
-        <v>978.7179849904845</v>
+        <v>1036.69209929506</v>
       </c>
     </row>
   </sheetData>
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>680.6166007905139</v>
+        <v>690.3378531073446</v>
       </c>
       <c r="C2" t="n">
-        <v>10.73309004827636</v>
+        <v>7.637123195978894</v>
       </c>
       <c r="D2" t="n">
-        <v>684.9098368098245</v>
+        <v>693.3927023857361</v>
       </c>
       <c r="E2" t="n">
-        <v>676.3233647712033</v>
+        <v>687.283003828953</v>
       </c>
     </row>
     <row r="3">
@@ -2025,54 +2025,54 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>741.2967691305912</v>
+        <v>716.1443467067919</v>
       </c>
       <c r="C3" t="n">
-        <v>11.41471039343427</v>
+        <v>11.93700571335255</v>
       </c>
       <c r="D3" t="n">
-        <v>745.8626532879649</v>
+        <v>720.9191489921329</v>
       </c>
       <c r="E3" t="n">
-        <v>736.7308849732175</v>
+        <v>711.3695444214509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MLPRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>748.8800706934376</v>
+        <v>755.9733554666533</v>
       </c>
       <c r="C4" t="n">
-        <v>14.99364986422869</v>
+        <v>12.93837500388185</v>
       </c>
       <c r="D4" t="n">
-        <v>754.8775306391291</v>
+        <v>761.148705468206</v>
       </c>
       <c r="E4" t="n">
-        <v>742.8826107477461</v>
+        <v>750.7980054651006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>755.4889978141128</v>
+        <v>757.2838363984654</v>
       </c>
       <c r="C5" t="n">
-        <v>18.50181337387439</v>
+        <v>22.61083085957852</v>
       </c>
       <c r="D5" t="n">
-        <v>762.8897231636626</v>
+        <v>766.3281687422968</v>
       </c>
       <c r="E5" t="n">
-        <v>748.0882724645631</v>
+        <v>748.2395040546339</v>
       </c>
     </row>
     <row r="6">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777.6173913043478</v>
+        <v>791.6595103578154</v>
       </c>
       <c r="C6" t="n">
-        <v>10.37787687677177</v>
+        <v>16.8293015841272</v>
       </c>
       <c r="D6" t="n">
-        <v>781.7685420550565</v>
+        <v>798.3912309914663</v>
       </c>
       <c r="E6" t="n">
-        <v>773.4662405536392</v>
+        <v>784.9277897241645</v>
       </c>
     </row>
     <row r="7">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817.7045105875679</v>
+        <v>808.790057057663</v>
       </c>
       <c r="C7" t="n">
-        <v>15.78846711528951</v>
+        <v>27.58682292011991</v>
       </c>
       <c r="D7" t="n">
-        <v>824.0198974336837</v>
+        <v>819.824786225711</v>
       </c>
       <c r="E7" t="n">
-        <v>811.3891237414522</v>
+        <v>797.755327889615</v>
       </c>
     </row>
     <row r="8">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>854.0912242934638</v>
+        <v>865.2942649309693</v>
       </c>
       <c r="C8" t="n">
-        <v>36.41872931817359</v>
+        <v>25.85976956954535</v>
       </c>
       <c r="D8" t="n">
-        <v>868.6587160207332</v>
+        <v>875.6381727587875</v>
       </c>
       <c r="E8" t="n">
-        <v>839.5237325661944</v>
+        <v>854.9503571031512</v>
       </c>
     </row>
     <row r="9">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>901.9442687747036</v>
+        <v>923.5141242937854</v>
       </c>
       <c r="C9" t="n">
-        <v>32.87223216061676</v>
+        <v>34.66528441542243</v>
       </c>
       <c r="D9" t="n">
-        <v>915.0931616389503</v>
+        <v>937.3802380599543</v>
       </c>
       <c r="E9" t="n">
-        <v>888.7953759104569</v>
+        <v>909.6480105276164</v>
       </c>
     </row>
     <row r="10">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.6869565217391</v>
+        <v>987.7314500941619</v>
       </c>
       <c r="C10" t="n">
-        <v>40.87704059947772</v>
+        <v>60.90886901386717</v>
       </c>
       <c r="D10" t="n">
-        <v>958.0377727615303</v>
+        <v>1012.094997699709</v>
       </c>
       <c r="E10" t="n">
-        <v>925.336140281948</v>
+        <v>963.3679024886151</v>
       </c>
     </row>
     <row r="11">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>997.9339920948617</v>
+        <v>1073.151789077213</v>
       </c>
       <c r="C11" t="n">
-        <v>63.71780148275963</v>
+        <v>113.4077054651077</v>
       </c>
       <c r="D11" t="n">
-        <v>1023.421112687966</v>
+        <v>1118.514871263256</v>
       </c>
       <c r="E11" t="n">
-        <v>972.4468715017578</v>
+        <v>1027.78870689117</v>
       </c>
     </row>
     <row r="12">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1032.425691699605</v>
+        <v>1111.941148775895</v>
       </c>
       <c r="C12" t="n">
-        <v>45.81875426096532</v>
+        <v>69.29802480009165</v>
       </c>
       <c r="D12" t="n">
-        <v>1050.753193403991</v>
+        <v>1139.660358695931</v>
       </c>
       <c r="E12" t="n">
-        <v>1014.098189995218</v>
+        <v>1084.221938855858</v>
       </c>
     </row>
   </sheetData>
@@ -2261,16 +2261,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>681.9588932806324</v>
+        <v>695.6350282485876</v>
       </c>
       <c r="C2" t="n">
-        <v>12.99954831288195</v>
+        <v>10.03603169141962</v>
       </c>
       <c r="D2" t="n">
-        <v>687.1587126057852</v>
+        <v>699.6494409251554</v>
       </c>
       <c r="E2" t="n">
-        <v>676.7590739554796</v>
+        <v>691.6206155720197</v>
       </c>
     </row>
     <row r="3">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>736.6060276659661</v>
+        <v>715.9548768324136</v>
       </c>
       <c r="C3" t="n">
-        <v>11.37611211892513</v>
+        <v>11.35996477893688</v>
       </c>
       <c r="D3" t="n">
-        <v>741.1564725135361</v>
+        <v>720.4988627439883</v>
       </c>
       <c r="E3" t="n">
-        <v>732.055582818396</v>
+        <v>711.4108909208388</v>
       </c>
     </row>
     <row r="4">
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>740.6144382542052</v>
+        <v>749.4913211936966</v>
       </c>
       <c r="C4" t="n">
-        <v>20.83878823132194</v>
+        <v>13.56820127697001</v>
       </c>
       <c r="D4" t="n">
-        <v>748.9499535467339</v>
+        <v>754.9186017044847</v>
       </c>
       <c r="E4" t="n">
-        <v>732.2789229616765</v>
+        <v>744.0640406829086</v>
       </c>
     </row>
     <row r="5">
@@ -2318,16 +2318,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>748.1435589122533</v>
+        <v>751.096749036977</v>
       </c>
       <c r="C5" t="n">
-        <v>25.32133188768696</v>
+        <v>15.45534816962567</v>
       </c>
       <c r="D5" t="n">
-        <v>758.272091667328</v>
+        <v>757.2788883048273</v>
       </c>
       <c r="E5" t="n">
-        <v>738.0150261571786</v>
+        <v>744.9146097691267</v>
       </c>
     </row>
     <row r="6">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793.9359683794466</v>
+        <v>801.3092278719397</v>
       </c>
       <c r="C6" t="n">
-        <v>11.79663882466365</v>
+        <v>6.987686607412163</v>
       </c>
       <c r="D6" t="n">
-        <v>798.6546239093121</v>
+        <v>804.1043025149046</v>
       </c>
       <c r="E6" t="n">
-        <v>789.2173128495812</v>
+        <v>798.5141532289748</v>
       </c>
     </row>
     <row r="7">
@@ -2356,16 +2356,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>841.9310596361478</v>
+        <v>837.9343955595565</v>
       </c>
       <c r="C7" t="n">
-        <v>15.22782565441762</v>
+        <v>22.37564428975238</v>
       </c>
       <c r="D7" t="n">
-        <v>848.0221898979148</v>
+        <v>846.8846532754575</v>
       </c>
       <c r="E7" t="n">
-        <v>835.8399293743807</v>
+        <v>828.9841378436555</v>
       </c>
     </row>
     <row r="8">
@@ -2375,16 +2375,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.4663257945667</v>
+        <v>896.6676546086026</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9380435814224</v>
+        <v>32.11692867126858</v>
       </c>
       <c r="D8" t="n">
-        <v>899.0415432271357</v>
+        <v>909.51442607711</v>
       </c>
       <c r="E8" t="n">
-        <v>871.8911083619978</v>
+        <v>883.8208831400951</v>
       </c>
     </row>
     <row r="9">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>936.3308300395257</v>
+        <v>942.6444444444445</v>
       </c>
       <c r="C9" t="n">
-        <v>20.37323428197368</v>
+        <v>37.82583572223321</v>
       </c>
       <c r="D9" t="n">
-        <v>944.4801237523152</v>
+        <v>957.7747787333378</v>
       </c>
       <c r="E9" t="n">
-        <v>928.1815363267362</v>
+        <v>927.5141101555512</v>
       </c>
     </row>
     <row r="10">
@@ -2413,16 +2413,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>953.8814229249011</v>
+        <v>972.7630885122411</v>
       </c>
       <c r="C10" t="n">
-        <v>44.93181023904058</v>
+        <v>18.71646771210777</v>
       </c>
       <c r="D10" t="n">
-        <v>971.8541470205174</v>
+        <v>980.2496755970842</v>
       </c>
       <c r="E10" t="n">
-        <v>935.9086988292848</v>
+        <v>965.276501427398</v>
       </c>
     </row>
     <row r="11">
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1008.232674571805</v>
+        <v>1007.929504080352</v>
       </c>
       <c r="C11" t="n">
-        <v>26.95285105983055</v>
+        <v>62.29400921415152</v>
       </c>
       <c r="D11" t="n">
-        <v>1019.013814995737</v>
+        <v>1032.847107766012</v>
       </c>
       <c r="E11" t="n">
-        <v>997.4515341478727</v>
+        <v>983.0119003946909</v>
       </c>
     </row>
     <row r="12">
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1041.31185770751</v>
+        <v>1070.99472693032</v>
       </c>
       <c r="C12" t="n">
-        <v>43.29894746218899</v>
+        <v>66.82576228276511</v>
       </c>
       <c r="D12" t="n">
-        <v>1058.631436692385</v>
+        <v>1097.725031843426</v>
       </c>
       <c r="E12" t="n">
-        <v>1023.992278722634</v>
+        <v>1044.264422017214</v>
       </c>
     </row>
   </sheetData>
@@ -2516,54 +2516,54 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677.901185770751</v>
+        <v>692.6655367231638</v>
       </c>
       <c r="C2" t="n">
-        <v>6.979264611141669</v>
+        <v>7.314616533965348</v>
       </c>
       <c r="D2" t="n">
-        <v>680.6928916152077</v>
+        <v>695.5913833367499</v>
       </c>
       <c r="E2" t="n">
-        <v>675.1094799262943</v>
+        <v>689.7396901095776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MLPRegressor</t>
+          <t>Linear Regression</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>731.4608697822345</v>
+        <v>715.5877833432094</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6069026630132</v>
+        <v>11.05120781182632</v>
       </c>
       <c r="D3" t="n">
-        <v>739.7036308474397</v>
+        <v>720.0082664679398</v>
       </c>
       <c r="E3" t="n">
-        <v>723.2181087170292</v>
+        <v>711.1673002184789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>735.8787253874015</v>
+        <v>740.9940744884439</v>
       </c>
       <c r="C4" t="n">
-        <v>10.98594779702832</v>
+        <v>21.31697060303234</v>
       </c>
       <c r="D4" t="n">
-        <v>740.2731045062128</v>
+        <v>749.5208627296568</v>
       </c>
       <c r="E4" t="n">
-        <v>731.4843462685901</v>
+        <v>732.467286247231</v>
       </c>
     </row>
     <row r="5">
@@ -2573,16 +2573,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>748.0251106773491</v>
+        <v>746.6777580363835</v>
       </c>
       <c r="C5" t="n">
-        <v>23.73792450721587</v>
+        <v>15.41625056001292</v>
       </c>
       <c r="D5" t="n">
-        <v>757.5202804802354</v>
+        <v>752.8442582603886</v>
       </c>
       <c r="E5" t="n">
-        <v>738.5299408744627</v>
+        <v>740.5112578123783</v>
       </c>
     </row>
     <row r="6">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>780.3268774703557</v>
+        <v>796.0015065913371</v>
       </c>
       <c r="C6" t="n">
-        <v>2.856884144365368</v>
+        <v>10.15229988241897</v>
       </c>
       <c r="D6" t="n">
-        <v>781.4696311281019</v>
+        <v>800.0624265443047</v>
       </c>
       <c r="E6" t="n">
-        <v>779.1841238126095</v>
+        <v>791.9405866383696</v>
       </c>
     </row>
     <row r="7">
@@ -2611,16 +2611,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.2841802829253</v>
+        <v>815.0264108695239</v>
       </c>
       <c r="C7" t="n">
-        <v>10.43209981844931</v>
+        <v>25.09784272649426</v>
       </c>
       <c r="D7" t="n">
-        <v>820.457020210305</v>
+        <v>825.0655479601216</v>
       </c>
       <c r="E7" t="n">
-        <v>812.1113403555455</v>
+        <v>804.9872737789262</v>
       </c>
     </row>
     <row r="8">
@@ -2630,16 +2630,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>874.4436212411512</v>
+        <v>889.7004459876798</v>
       </c>
       <c r="C8" t="n">
-        <v>37.44052658303286</v>
+        <v>52.94562402655087</v>
       </c>
       <c r="D8" t="n">
-        <v>889.4198318743643</v>
+        <v>910.8786955983002</v>
       </c>
       <c r="E8" t="n">
-        <v>859.4674106079381</v>
+        <v>868.5221963770595</v>
       </c>
     </row>
     <row r="9">
@@ -2649,16 +2649,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>914.7802371541502</v>
+        <v>922.7905838041431</v>
       </c>
       <c r="C9" t="n">
-        <v>25.46006101556351</v>
+        <v>38.65334972026291</v>
       </c>
       <c r="D9" t="n">
-        <v>924.9642615603756</v>
+        <v>938.2519236922483</v>
       </c>
       <c r="E9" t="n">
-        <v>904.5962127479248</v>
+        <v>907.329243916038</v>
       </c>
     </row>
     <row r="10">
@@ -2668,16 +2668,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1013.6</v>
+        <v>962.8806026365348</v>
       </c>
       <c r="C10" t="n">
-        <v>24.19703558200019</v>
+        <v>37.3309481580995</v>
       </c>
       <c r="D10" t="n">
-        <v>1023.2788142328</v>
+        <v>977.8129818997746</v>
       </c>
       <c r="E10" t="n">
-        <v>1003.9211857672</v>
+        <v>947.948223373295</v>
       </c>
     </row>
     <row r="11">
@@ -2687,16 +2687,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1017.793148880105</v>
+        <v>1002.916195856874</v>
       </c>
       <c r="C11" t="n">
-        <v>37.1769936808272</v>
+        <v>62.21006638005013</v>
       </c>
       <c r="D11" t="n">
-        <v>1032.663946352436</v>
+        <v>1027.800222408894</v>
       </c>
       <c r="E11" t="n">
-        <v>1002.922351407774</v>
+        <v>978.0321693048537</v>
       </c>
     </row>
     <row r="12">
@@ -2706,16 +2706,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1026.672727272727</v>
+        <v>1057.2934086629</v>
       </c>
       <c r="C12" t="n">
-        <v>25.07861417529117</v>
+        <v>62.44363835460361</v>
       </c>
       <c r="D12" t="n">
-        <v>1036.704172942844</v>
+        <v>1082.270864004742</v>
       </c>
       <c r="E12" t="n">
-        <v>1016.641281602611</v>
+        <v>1032.315953321059</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>945.8900243309002</v>
+        <v>944.0931062449311</v>
       </c>
       <c r="C2" t="n">
-        <v>15.10697117212341</v>
+        <v>12.96998217021774</v>
       </c>
       <c r="D2" t="n">
-        <v>951.9328127997496</v>
+        <v>949.2810991130182</v>
       </c>
       <c r="E2" t="n">
-        <v>939.8472358620509</v>
+        <v>938.9051133768439</v>
       </c>
     </row>
     <row r="3">
@@ -2790,54 +2790,54 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1029.492134099041</v>
+        <v>1029.603827303491</v>
       </c>
       <c r="C3" t="n">
-        <v>6.347316969459395</v>
+        <v>6.514005225883884</v>
       </c>
       <c r="D3" t="n">
-        <v>1032.031060886825</v>
+        <v>1032.209429393844</v>
       </c>
       <c r="E3" t="n">
-        <v>1026.953207311257</v>
+        <v>1026.998225213137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1046.266893208868</v>
+        <v>1046.589456609895</v>
       </c>
       <c r="C4" t="n">
-        <v>15.20839277052968</v>
+        <v>4.015135848435074</v>
       </c>
       <c r="D4" t="n">
-        <v>1052.35025031708</v>
+        <v>1048.195510949269</v>
       </c>
       <c r="E4" t="n">
-        <v>1040.183536100656</v>
+        <v>1044.983402270521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1046.625628548256</v>
+        <v>1048.773259472407</v>
       </c>
       <c r="C5" t="n">
-        <v>5.524123632138513</v>
+        <v>17.00495285125679</v>
       </c>
       <c r="D5" t="n">
-        <v>1048.835278001112</v>
+        <v>1055.575240612909</v>
       </c>
       <c r="E5" t="n">
-        <v>1044.415979095401</v>
+        <v>1041.971278331904</v>
       </c>
     </row>
     <row r="6">
@@ -2847,54 +2847,54 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1060.811002590122</v>
+        <v>1060.877437375067</v>
       </c>
       <c r="C6" t="n">
-        <v>6.12573193490974</v>
+        <v>4.729729921829877</v>
       </c>
       <c r="D6" t="n">
-        <v>1063.261295364086</v>
+        <v>1062.769329343799</v>
       </c>
       <c r="E6" t="n">
-        <v>1058.360709816158</v>
+        <v>1058.985545406335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1172.470654019668</v>
+        <v>1173.164287416345</v>
       </c>
       <c r="C7" t="n">
-        <v>24.53462092056383</v>
+        <v>25.7568813850438</v>
       </c>
       <c r="D7" t="n">
-        <v>1182.284502387893</v>
+        <v>1183.467039970363</v>
       </c>
       <c r="E7" t="n">
-        <v>1162.656805651442</v>
+        <v>1162.861534862328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.248025649056</v>
+        <v>1174.945459568491</v>
       </c>
       <c r="C8" t="n">
-        <v>19.71345280137906</v>
+        <v>28.35186459050521</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.133406769608</v>
+        <v>1186.286205404693</v>
       </c>
       <c r="E8" t="n">
-        <v>1165.362644528504</v>
+        <v>1163.604713732289</v>
       </c>
     </row>
     <row r="9">
@@ -2904,54 +2904,54 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1253.203568532036</v>
+        <v>1257.531224655312</v>
       </c>
       <c r="C9" t="n">
-        <v>43.13303979453512</v>
+        <v>55.61871368653951</v>
       </c>
       <c r="D9" t="n">
-        <v>1270.45678444985</v>
+        <v>1279.778710129928</v>
       </c>
       <c r="E9" t="n">
-        <v>1235.950352614222</v>
+        <v>1235.283739180696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RandomForestClassifier</t>
+          <t xml:space="preserve"> DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1349.309326845093</v>
+        <v>1343.139172749392</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0857237233996</v>
+        <v>12.26672048372613</v>
       </c>
       <c r="D10" t="n">
-        <v>1368.143616334453</v>
+        <v>1348.045860942882</v>
       </c>
       <c r="E10" t="n">
-        <v>1330.475037355733</v>
+        <v>1338.232484555901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DecisionTreeClassifier</t>
+          <t>RandomForestClassifier</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1356.980535279805</v>
+        <v>1345.993511759935</v>
       </c>
       <c r="C11" t="n">
-        <v>18.42667127676998</v>
+        <v>39.67661042102908</v>
       </c>
       <c r="D11" t="n">
-        <v>1364.351203790513</v>
+        <v>1361.864155928347</v>
       </c>
       <c r="E11" t="n">
-        <v>1349.609866769097</v>
+        <v>1330.122867591523</v>
       </c>
     </row>
     <row r="12">
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1366.774383010879</v>
+        <v>1371.953358617592</v>
       </c>
       <c r="C12" t="n">
-        <v>39.06022014458281</v>
+        <v>25.69537864974926</v>
       </c>
       <c r="D12" t="n">
-        <v>1382.398471068713</v>
+        <v>1382.231510077492</v>
       </c>
       <c r="E12" t="n">
-        <v>1351.150294953046</v>
+        <v>1361.675207157693</v>
       </c>
     </row>
   </sheetData>

--- a/ml/resultados.xlsx
+++ b/ml/resultados.xlsx
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1044.741419945683</v>
+        <v>1044.056395073717</v>
       </c>
       <c r="C5" t="n">
-        <v>11.96320906192886</v>
+        <v>12.52313193506675</v>
       </c>
       <c r="D5" t="n">
-        <v>1049.526703570455</v>
+        <v>1049.065647847744</v>
       </c>
       <c r="E5" t="n">
-        <v>1039.956136320911</v>
+        <v>1039.047142299691</v>
       </c>
     </row>
     <row r="6">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1057.48675713591</v>
+        <v>1056.968387986113</v>
       </c>
       <c r="C6" t="n">
-        <v>5.569991493540691</v>
+        <v>6.028694640631625</v>
       </c>
       <c r="D6" t="n">
-        <v>1059.714753733326</v>
+        <v>1059.379865842366</v>
       </c>
       <c r="E6" t="n">
-        <v>1055.258760538494</v>
+        <v>1054.556910129861</v>
       </c>
     </row>
     <row r="7">
@@ -590,16 +590,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.502460495646</v>
+        <v>1162.615102551616</v>
       </c>
       <c r="C8" t="n">
-        <v>25.04180926258941</v>
+        <v>20.00566156307302</v>
       </c>
       <c r="D8" t="n">
-        <v>1170.519184200681</v>
+        <v>1170.617367176845</v>
       </c>
       <c r="E8" t="n">
-        <v>1150.48573679061</v>
+        <v>1154.612837926387</v>
       </c>
     </row>
     <row r="9">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1313.860178426602</v>
+        <v>1330.322627737226</v>
       </c>
       <c r="C9" t="n">
-        <v>43.70057545353648</v>
+        <v>34.87412906845146</v>
       </c>
       <c r="D9" t="n">
-        <v>1331.340408608016</v>
+        <v>1344.272279364607</v>
       </c>
       <c r="E9" t="n">
-        <v>1296.379948245187</v>
+        <v>1316.372976109846</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1326.859529602595</v>
+        <v>1335.512570965126</v>
       </c>
       <c r="C10" t="n">
-        <v>36.87193292599426</v>
+        <v>51.18473732310909</v>
       </c>
       <c r="D10" t="n">
-        <v>1341.608302772993</v>
+        <v>1355.986465894369</v>
       </c>
       <c r="E10" t="n">
-        <v>1312.110756432198</v>
+        <v>1315.038676035882</v>
       </c>
     </row>
     <row r="11">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1360.565477155988</v>
+        <v>1368.436888348202</v>
       </c>
       <c r="C11" t="n">
-        <v>18.67480558986908</v>
+        <v>15.81957473210529</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.035399391936</v>
+        <v>1374.764718241044</v>
       </c>
       <c r="E11" t="n">
-        <v>1353.095554920041</v>
+        <v>1362.10905845536</v>
       </c>
     </row>
     <row r="12">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1444.570478507705</v>
+        <v>1426.446390916464</v>
       </c>
       <c r="C12" t="n">
-        <v>83.42927554568691</v>
+        <v>35.6270903506319</v>
       </c>
       <c r="D12" t="n">
-        <v>1477.94218872598</v>
+        <v>1440.697227056717</v>
       </c>
       <c r="E12" t="n">
-        <v>1411.19876828943</v>
+        <v>1412.195554776211</v>
       </c>
     </row>
   </sheetData>
@@ -788,16 +788,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1043.156902097502</v>
+        <v>1043.710850877725</v>
       </c>
       <c r="C5" t="n">
-        <v>11.70004744822328</v>
+        <v>11.43995359643177</v>
       </c>
       <c r="D5" t="n">
-        <v>1047.836921076791</v>
+        <v>1048.286832316297</v>
       </c>
       <c r="E5" t="n">
-        <v>1038.476883118213</v>
+        <v>1039.134869439152</v>
       </c>
     </row>
     <row r="6">
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1047.929643019731</v>
+        <v>1046.40975744126</v>
       </c>
       <c r="C6" t="n">
-        <v>6.984545616496566</v>
+        <v>4.01419548748564</v>
       </c>
       <c r="D6" t="n">
-        <v>1050.72346126633</v>
+        <v>1048.015435636255</v>
       </c>
       <c r="E6" t="n">
-        <v>1045.135824773133</v>
+        <v>1044.804079246266</v>
       </c>
     </row>
     <row r="7">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.718243093925</v>
+        <v>1165.082447898285</v>
       </c>
       <c r="C8" t="n">
-        <v>21.18277895852143</v>
+        <v>19.61257055017731</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.191354677334</v>
+        <v>1172.927476118356</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.245131510517</v>
+        <v>1157.237419678215</v>
       </c>
     </row>
     <row r="9">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1315.465531224655</v>
+        <v>1328.233901054339</v>
       </c>
       <c r="C9" t="n">
-        <v>35.63590233761403</v>
+        <v>19.41628331139915</v>
       </c>
       <c r="D9" t="n">
-        <v>1329.719892159701</v>
+        <v>1336.000414378899</v>
       </c>
       <c r="E9" t="n">
-        <v>1301.21117028961</v>
+        <v>1320.467387729779</v>
       </c>
     </row>
     <row r="10">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1316.273317112733</v>
+        <v>1337.751500405515</v>
       </c>
       <c r="C10" t="n">
-        <v>40.69741942383973</v>
+        <v>38.80226397665803</v>
       </c>
       <c r="D10" t="n">
-        <v>1332.552284882269</v>
+        <v>1353.272405996178</v>
       </c>
       <c r="E10" t="n">
-        <v>1299.994349343197</v>
+        <v>1322.230594814852</v>
       </c>
     </row>
     <row r="11">
@@ -902,16 +902,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1343.533833468505</v>
+        <v>1348.321749121384</v>
       </c>
       <c r="C11" t="n">
-        <v>30.27563168160148</v>
+        <v>24.38318981729461</v>
       </c>
       <c r="D11" t="n">
-        <v>1355.644086141146</v>
+        <v>1358.075025048302</v>
       </c>
       <c r="E11" t="n">
-        <v>1331.423580795864</v>
+        <v>1338.568473194466</v>
       </c>
     </row>
     <row r="12">
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1415.583941605839</v>
+        <v>1440.125385239254</v>
       </c>
       <c r="C12" t="n">
-        <v>53.93424042866569</v>
+        <v>43.77816448929533</v>
       </c>
       <c r="D12" t="n">
-        <v>1437.157637777306</v>
+        <v>1457.636651034972</v>
       </c>
       <c r="E12" t="n">
-        <v>1394.010245434373</v>
+        <v>1422.614119443536</v>
       </c>
     </row>
   </sheetData>
@@ -1020,39 +1020,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1041.654176804542</v>
+        <v>1040.818323233807</v>
       </c>
       <c r="C4" t="n">
-        <v>4.02575937202237</v>
+        <v>18.83646775160152</v>
       </c>
       <c r="D4" t="n">
-        <v>1043.264480553351</v>
+        <v>1048.352910334448</v>
       </c>
       <c r="E4" t="n">
-        <v>1040.043873055733</v>
+        <v>1033.283736133167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1041.760408373591</v>
+        <v>1041.654176804542</v>
       </c>
       <c r="C5" t="n">
-        <v>18.49235219597699</v>
+        <v>4.02575937202237</v>
       </c>
       <c r="D5" t="n">
-        <v>1049.157349251982</v>
+        <v>1043.264480553351</v>
       </c>
       <c r="E5" t="n">
-        <v>1034.3634674952</v>
+        <v>1040.043873055733</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1051.940720376329</v>
+        <v>1051.611263075038</v>
       </c>
       <c r="C6" t="n">
-        <v>6.108840297329175</v>
+        <v>6.383392932852468</v>
       </c>
       <c r="D6" t="n">
-        <v>1054.384256495261</v>
+        <v>1054.164620248179</v>
       </c>
       <c r="E6" t="n">
-        <v>1049.497184257397</v>
+        <v>1049.057905901897</v>
       </c>
     </row>
     <row r="7">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.173830184684</v>
+        <v>1132.776577330798</v>
       </c>
       <c r="C7" t="n">
-        <v>15.63764467499404</v>
+        <v>28.09305651463078</v>
       </c>
       <c r="D7" t="n">
-        <v>1135.428888054682</v>
+        <v>1144.01379993665</v>
       </c>
       <c r="E7" t="n">
-        <v>1122.918772314687</v>
+        <v>1121.539354724945</v>
       </c>
     </row>
     <row r="8">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1261.148905109489</v>
+        <v>1287.515328467153</v>
       </c>
       <c r="C9" t="n">
-        <v>37.56639532440263</v>
+        <v>39.3659588295948</v>
       </c>
       <c r="D9" t="n">
-        <v>1276.17546323925</v>
+        <v>1303.261711998991</v>
       </c>
       <c r="E9" t="n">
-        <v>1246.122346979728</v>
+        <v>1271.768944935315</v>
       </c>
     </row>
     <row r="10">
@@ -1138,16 +1138,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1340.351500405515</v>
+        <v>1356.171776155718</v>
       </c>
       <c r="C10" t="n">
-        <v>54.77242273365485</v>
+        <v>34.35394934089583</v>
       </c>
       <c r="D10" t="n">
-        <v>1362.260469498977</v>
+        <v>1369.913355892076</v>
       </c>
       <c r="E10" t="n">
-        <v>1318.442531312053</v>
+        <v>1342.430196419359</v>
       </c>
     </row>
     <row r="11">
@@ -1157,16 +1157,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1417.669586374696</v>
+        <v>1400.95296025953</v>
       </c>
       <c r="C11" t="n">
-        <v>61.49648747407302</v>
+        <v>37.26461893128616</v>
       </c>
       <c r="D11" t="n">
-        <v>1442.268181364325</v>
+        <v>1415.858807832044</v>
       </c>
       <c r="E11" t="n">
-        <v>1393.070991385067</v>
+        <v>1386.047112687015</v>
       </c>
     </row>
     <row r="12">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1420.967653419843</v>
+        <v>1417.278575290619</v>
       </c>
       <c r="C12" t="n">
-        <v>28.50336307935525</v>
+        <v>43.05848559660133</v>
       </c>
       <c r="D12" t="n">
-        <v>1432.368998651585</v>
+        <v>1434.50196952926</v>
       </c>
       <c r="E12" t="n">
-        <v>1409.566308188101</v>
+        <v>1400.055181051978</v>
       </c>
     </row>
   </sheetData>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1040.745979882588</v>
+        <v>1039.59835115479</v>
       </c>
       <c r="C5" t="n">
-        <v>6.515214841509487</v>
+        <v>5.288378228062405</v>
       </c>
       <c r="D5" t="n">
-        <v>1043.352065819191</v>
+        <v>1041.713702446015</v>
       </c>
       <c r="E5" t="n">
-        <v>1038.139893945984</v>
+        <v>1037.482999863565</v>
       </c>
     </row>
     <row r="6">
@@ -1317,54 +1317,54 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1040.775288343738</v>
+        <v>1041.852757237482</v>
       </c>
       <c r="C6" t="n">
-        <v>3.880730399725143</v>
+        <v>3.116694218722766</v>
       </c>
       <c r="D6" t="n">
-        <v>1042.327580503628</v>
+        <v>1043.099434924972</v>
       </c>
       <c r="E6" t="n">
-        <v>1039.222996183848</v>
+        <v>1040.606079549993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1162.888669228534</v>
+        <v>1161.998782911884</v>
       </c>
       <c r="C7" t="n">
-        <v>15.68002153275733</v>
+        <v>22.25057694529981</v>
       </c>
       <c r="D7" t="n">
-        <v>1169.160677841637</v>
+        <v>1170.899013690004</v>
       </c>
       <c r="E7" t="n">
-        <v>1156.616660615431</v>
+        <v>1153.098552133764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1163.903413905478</v>
+        <v>1162.888669228534</v>
       </c>
       <c r="C8" t="n">
-        <v>18.58558246035076</v>
+        <v>15.68002153275733</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.337646889619</v>
+        <v>1169.160677841637</v>
       </c>
       <c r="E8" t="n">
-        <v>1156.469180921338</v>
+        <v>1156.616660615431</v>
       </c>
     </row>
     <row r="9">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1310.18199513382</v>
+        <v>1315.574209245742</v>
       </c>
       <c r="C9" t="n">
-        <v>43.25342831355597</v>
+        <v>37.24727045548546</v>
       </c>
       <c r="D9" t="n">
-        <v>1327.483366459242</v>
+        <v>1330.473117427936</v>
       </c>
       <c r="E9" t="n">
-        <v>1292.880623808398</v>
+        <v>1300.675301063548</v>
       </c>
     </row>
     <row r="10">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1343.603892944039</v>
+        <v>1351.475101378751</v>
       </c>
       <c r="C10" t="n">
-        <v>33.86016428579097</v>
+        <v>41.8027788612898</v>
       </c>
       <c r="D10" t="n">
-        <v>1357.147958658355</v>
+        <v>1368.196212923267</v>
       </c>
       <c r="E10" t="n">
-        <v>1330.059827229722</v>
+        <v>1334.753989834235</v>
       </c>
     </row>
     <row r="11">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.088686131387</v>
+        <v>1367.868924033522</v>
       </c>
       <c r="C11" t="n">
-        <v>35.40871296532122</v>
+        <v>30.87037887621739</v>
       </c>
       <c r="D11" t="n">
-        <v>1377.252171317515</v>
+        <v>1380.21707558401</v>
       </c>
       <c r="E11" t="n">
-        <v>1348.925200945258</v>
+        <v>1355.520772483035</v>
       </c>
     </row>
     <row r="12">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1424.411192214112</v>
+        <v>1417.212814274128</v>
       </c>
       <c r="C12" t="n">
-        <v>29.6972603791136</v>
+        <v>59.64637718020951</v>
       </c>
       <c r="D12" t="n">
-        <v>1436.290096365757</v>
+        <v>1441.071365146212</v>
       </c>
       <c r="E12" t="n">
-        <v>1412.532288062466</v>
+        <v>1393.354263402044</v>
       </c>
     </row>
   </sheetData>
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1035.169350670695</v>
+        <v>1035.023201569948</v>
       </c>
       <c r="C4" t="n">
-        <v>7.788397914247924</v>
+        <v>8.147827059241132</v>
       </c>
       <c r="D4" t="n">
-        <v>1038.284709836395</v>
+        <v>1038.282332393645</v>
       </c>
       <c r="E4" t="n">
-        <v>1032.053991504996</v>
+        <v>1031.764070746251</v>
       </c>
     </row>
     <row r="5">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.755172171064</v>
+        <v>1036.364474891652</v>
       </c>
       <c r="C5" t="n">
-        <v>14.28439025263291</v>
+        <v>13.43978796725306</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.468928272118</v>
+        <v>1041.740390078553</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.041416070011</v>
+        <v>1030.98855970475</v>
       </c>
     </row>
     <row r="6">
@@ -1591,16 +1591,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1135.040479479946</v>
+        <v>1138.939133848917</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28657620685539</v>
+        <v>18.64412608499007</v>
       </c>
       <c r="D7" t="n">
-        <v>1142.755109962688</v>
+        <v>1146.396784282913</v>
       </c>
       <c r="E7" t="n">
-        <v>1127.325848997204</v>
+        <v>1131.481483414921</v>
       </c>
     </row>
     <row r="8">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1291.312084347121</v>
+        <v>1265.70300081103</v>
       </c>
       <c r="C9" t="n">
-        <v>54.99576482994696</v>
+        <v>53.28601645977409</v>
       </c>
       <c r="D9" t="n">
-        <v>1313.3103902791</v>
+        <v>1287.01740739494</v>
       </c>
       <c r="E9" t="n">
-        <v>1269.313778415142</v>
+        <v>1244.38859422712</v>
       </c>
     </row>
     <row r="10">
@@ -1648,16 +1648,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1385.370802919708</v>
+        <v>1376.471370640714</v>
       </c>
       <c r="C10" t="n">
-        <v>41.99686147333566</v>
+        <v>32.17601344048627</v>
       </c>
       <c r="D10" t="n">
-        <v>1402.169547509042</v>
+        <v>1389.341776016908</v>
       </c>
       <c r="E10" t="n">
-        <v>1368.572058330374</v>
+        <v>1363.600965264519</v>
       </c>
     </row>
     <row r="11">
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1397.019626926196</v>
+        <v>1395.502838605029</v>
       </c>
       <c r="C11" t="n">
-        <v>56.78780656168337</v>
+        <v>81.36268536572464</v>
       </c>
       <c r="D11" t="n">
-        <v>1419.73474955087</v>
+        <v>1428.047912751318</v>
       </c>
       <c r="E11" t="n">
-        <v>1374.304504301523</v>
+        <v>1362.957764458739</v>
       </c>
     </row>
     <row r="12">
@@ -1686,16 +1686,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1461.510394701271</v>
+        <v>1452.452095160854</v>
       </c>
       <c r="C12" t="n">
-        <v>49.75115465182982</v>
+        <v>33.34936637739587</v>
       </c>
       <c r="D12" t="n">
-        <v>1481.410856562002</v>
+        <v>1465.791841711813</v>
       </c>
       <c r="E12" t="n">
-        <v>1441.609932840539</v>
+        <v>1439.112348609896</v>
       </c>
     </row>
   </sheetData>
@@ -1789,16 +1789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>746.5359918261792</v>
+        <v>745.4195071274409</v>
       </c>
       <c r="C4" t="n">
-        <v>14.65425744714876</v>
+        <v>13.69305522492636</v>
       </c>
       <c r="D4" t="n">
-        <v>752.3976948050387</v>
+        <v>750.8967292174113</v>
       </c>
       <c r="E4" t="n">
-        <v>740.6742888473196</v>
+        <v>739.9422850374704</v>
       </c>
     </row>
     <row r="5">
@@ -1808,16 +1808,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.9175364694688</v>
+        <v>759.5185354589501</v>
       </c>
       <c r="C5" t="n">
-        <v>8.83928786229758</v>
+        <v>31.71109534356123</v>
       </c>
       <c r="D5" t="n">
-        <v>756.4532516143878</v>
+        <v>772.2029735963746</v>
       </c>
       <c r="E5" t="n">
-        <v>749.3818213245498</v>
+        <v>746.8340973215255</v>
       </c>
     </row>
     <row r="6">
@@ -1846,16 +1846,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>838.9402279614364</v>
+        <v>832.2469703706004</v>
       </c>
       <c r="C7" t="n">
-        <v>20.78957327592297</v>
+        <v>18.42658177347785</v>
       </c>
       <c r="D7" t="n">
-        <v>847.2560572718056</v>
+        <v>839.6176030799915</v>
       </c>
       <c r="E7" t="n">
-        <v>830.6243986510673</v>
+        <v>824.8763376612093</v>
       </c>
     </row>
     <row r="8">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.9566854990584</v>
+        <v>955.7359698681732</v>
       </c>
       <c r="C9" t="n">
-        <v>27.41257399140767</v>
+        <v>27.14215342272444</v>
       </c>
       <c r="D9" t="n">
-        <v>952.9217150956215</v>
+        <v>966.592831237263</v>
       </c>
       <c r="E9" t="n">
-        <v>930.9916559024953</v>
+        <v>944.8791084990835</v>
       </c>
     </row>
     <row r="10">
@@ -1903,16 +1903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>957.4188323917137</v>
+        <v>958.4459510357815</v>
       </c>
       <c r="C10" t="n">
-        <v>45.8175043899934</v>
+        <v>59.50065881116756</v>
       </c>
       <c r="D10" t="n">
-        <v>975.7458341477111</v>
+        <v>982.2462145602485</v>
       </c>
       <c r="E10" t="n">
-        <v>939.0918306357164</v>
+        <v>934.6456875113145</v>
       </c>
     </row>
     <row r="11">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>981.923289391086</v>
+        <v>982.9011299435028</v>
       </c>
       <c r="C11" t="n">
-        <v>26.03682344298079</v>
+        <v>33.16092465439281</v>
       </c>
       <c r="D11" t="n">
-        <v>992.3380187682783</v>
+        <v>996.16549980526</v>
       </c>
       <c r="E11" t="n">
-        <v>971.5085600138937</v>
+        <v>969.6367600817457</v>
       </c>
     </row>
     <row r="12">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1074.329566854991</v>
+        <v>1080.048587570621</v>
       </c>
       <c r="C12" t="n">
-        <v>94.09366889982732</v>
+        <v>82.46186540969221</v>
       </c>
       <c r="D12" t="n">
-        <v>1111.967034414921</v>
+        <v>1113.033333734498</v>
       </c>
       <c r="E12" t="n">
-        <v>1036.69209929506</v>
+        <v>1047.063841406744</v>
       </c>
     </row>
   </sheetData>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>755.9733554666533</v>
+        <v>752.3885723211174</v>
       </c>
       <c r="C4" t="n">
-        <v>12.93837500388185</v>
+        <v>12.47992804440953</v>
       </c>
       <c r="D4" t="n">
-        <v>761.148705468206</v>
+        <v>757.3805435388812</v>
       </c>
       <c r="E4" t="n">
-        <v>750.7980054651006</v>
+        <v>747.3966011033536</v>
       </c>
     </row>
     <row r="5">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>757.2838363984654</v>
+        <v>755.7959505635056</v>
       </c>
       <c r="C5" t="n">
-        <v>22.61083085957852</v>
+        <v>14.36311823405117</v>
       </c>
       <c r="D5" t="n">
-        <v>766.3281687422968</v>
+        <v>761.541197857126</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2395040546339</v>
+        <v>750.0507032698852</v>
       </c>
     </row>
     <row r="6">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>808.790057057663</v>
+        <v>810.5858216004543</v>
       </c>
       <c r="C7" t="n">
-        <v>27.58682292011991</v>
+        <v>31.16943619868495</v>
       </c>
       <c r="D7" t="n">
-        <v>819.824786225711</v>
+        <v>823.0535960799283</v>
       </c>
       <c r="E7" t="n">
-        <v>797.755327889615</v>
+        <v>798.1180471209803</v>
       </c>
     </row>
     <row r="8">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>923.5141242937854</v>
+        <v>928.5894538606403</v>
       </c>
       <c r="C9" t="n">
-        <v>34.66528441542243</v>
+        <v>30.56338160291391</v>
       </c>
       <c r="D9" t="n">
-        <v>937.3802380599543</v>
+        <v>940.8148065018059</v>
       </c>
       <c r="E9" t="n">
-        <v>909.6480105276164</v>
+        <v>916.3641012194747</v>
       </c>
     </row>
     <row r="10">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>987.7314500941619</v>
+        <v>1004.164971751412</v>
       </c>
       <c r="C10" t="n">
-        <v>60.90886901386717</v>
+        <v>80.9966900730852</v>
       </c>
       <c r="D10" t="n">
-        <v>1012.094997699709</v>
+        <v>1036.563647780647</v>
       </c>
       <c r="E10" t="n">
-        <v>963.3679024886151</v>
+        <v>971.7662957221783</v>
       </c>
     </row>
     <row r="11">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1073.151789077213</v>
+        <v>1066.580790960452</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4077054651077</v>
+        <v>117.6024961038062</v>
       </c>
       <c r="D11" t="n">
-        <v>1118.514871263256</v>
+        <v>1113.621789401974</v>
       </c>
       <c r="E11" t="n">
-        <v>1027.78870689117</v>
+        <v>1019.539792518929</v>
       </c>
     </row>
     <row r="12">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111.941148775895</v>
+        <v>1104.250125549278</v>
       </c>
       <c r="C12" t="n">
-        <v>69.29802480009165</v>
+        <v>67.34180873345383</v>
       </c>
       <c r="D12" t="n">
-        <v>1139.660358695931</v>
+        <v>1131.18684904266</v>
       </c>
       <c r="E12" t="n">
-        <v>1084.221938855858</v>
+        <v>1077.313402055896</v>
       </c>
     </row>
   </sheetData>
@@ -2295,39 +2295,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MLPRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>749.4913211936966</v>
+        <v>750.8680022739713</v>
       </c>
       <c r="C4" t="n">
-        <v>13.56820127697001</v>
+        <v>15.12349486182063</v>
       </c>
       <c r="D4" t="n">
-        <v>754.9186017044847</v>
+        <v>756.9174002186996</v>
       </c>
       <c r="E4" t="n">
-        <v>744.0640406829086</v>
+        <v>744.818604329243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>751.096749036977</v>
+        <v>751.6797252833734</v>
       </c>
       <c r="C5" t="n">
-        <v>15.45534816962567</v>
+        <v>23.41358404672348</v>
       </c>
       <c r="D5" t="n">
-        <v>757.2788883048273</v>
+        <v>761.0451589020628</v>
       </c>
       <c r="E5" t="n">
-        <v>744.9146097691267</v>
+        <v>742.314291664684</v>
       </c>
     </row>
     <row r="6">
@@ -2356,16 +2356,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>837.9343955595565</v>
+        <v>840.0325834725015</v>
       </c>
       <c r="C7" t="n">
-        <v>22.37564428975238</v>
+        <v>27.48583588961675</v>
       </c>
       <c r="D7" t="n">
-        <v>846.8846532754575</v>
+        <v>851.0269178283482</v>
       </c>
       <c r="E7" t="n">
-        <v>828.9841378436555</v>
+        <v>829.0382491166548</v>
       </c>
     </row>
     <row r="8">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>942.6444444444445</v>
+        <v>939.9250470809793</v>
       </c>
       <c r="C9" t="n">
-        <v>37.82583572223321</v>
+        <v>37.15048618403762</v>
       </c>
       <c r="D9" t="n">
-        <v>957.7747787333378</v>
+        <v>954.7852415545943</v>
       </c>
       <c r="E9" t="n">
-        <v>927.5141101555512</v>
+        <v>925.0648526073643</v>
       </c>
     </row>
     <row r="10">
@@ -2413,16 +2413,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>972.7630885122411</v>
+        <v>981.3984934086629</v>
       </c>
       <c r="C10" t="n">
-        <v>18.71646771210777</v>
+        <v>38.43491370292487</v>
       </c>
       <c r="D10" t="n">
-        <v>980.2496755970842</v>
+        <v>996.7724588898329</v>
       </c>
       <c r="E10" t="n">
-        <v>965.276501427398</v>
+        <v>966.024527927493</v>
       </c>
     </row>
     <row r="11">
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1007.929504080352</v>
+        <v>1009.192153170119</v>
       </c>
       <c r="C11" t="n">
-        <v>62.29400921415152</v>
+        <v>43.3946856441278</v>
       </c>
       <c r="D11" t="n">
-        <v>1032.847107766012</v>
+        <v>1026.55002742777</v>
       </c>
       <c r="E11" t="n">
-        <v>983.0119003946909</v>
+        <v>991.8342789124681</v>
       </c>
     </row>
     <row r="12">
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1070.99472693032</v>
+        <v>1051.882862523541</v>
       </c>
       <c r="C12" t="n">
-        <v>66.82576228276511</v>
+        <v>50.08985742872544</v>
       </c>
       <c r="D12" t="n">
-        <v>1097.725031843426</v>
+        <v>1071.918805495031</v>
       </c>
       <c r="E12" t="n">
-        <v>1044.264422017214</v>
+        <v>1031.84691955205</v>
       </c>
     </row>
   </sheetData>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>740.9940744884439</v>
+        <v>745.4021665379323</v>
       </c>
       <c r="C4" t="n">
-        <v>21.31697060303234</v>
+        <v>18.69090516364577</v>
       </c>
       <c r="D4" t="n">
-        <v>749.5208627296568</v>
+        <v>752.8785286033906</v>
       </c>
       <c r="E4" t="n">
-        <v>732.467286247231</v>
+        <v>737.9258044724741</v>
       </c>
     </row>
     <row r="5">
@@ -2573,16 +2573,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>746.6777580363835</v>
+        <v>746.0205641799801</v>
       </c>
       <c r="C5" t="n">
-        <v>15.41625056001292</v>
+        <v>14.84443723794105</v>
       </c>
       <c r="D5" t="n">
-        <v>752.8442582603886</v>
+        <v>751.9583390751565</v>
       </c>
       <c r="E5" t="n">
-        <v>740.5112578123783</v>
+        <v>740.0827892848037</v>
       </c>
     </row>
     <row r="6">
@@ -2611,16 +2611,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815.0264108695239</v>
+        <v>811.7134460980534</v>
       </c>
       <c r="C7" t="n">
-        <v>25.09784272649426</v>
+        <v>27.65060055008394</v>
       </c>
       <c r="D7" t="n">
-        <v>825.0655479601216</v>
+        <v>822.773686318087</v>
       </c>
       <c r="E7" t="n">
-        <v>804.9872737789262</v>
+        <v>800.6532058780198</v>
       </c>
     </row>
     <row r="8">
@@ -2649,16 +2649,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>922.7905838041431</v>
+        <v>934.2975517890773</v>
       </c>
       <c r="C9" t="n">
-        <v>38.65334972026291</v>
+        <v>31.5410808756904</v>
       </c>
       <c r="D9" t="n">
-        <v>938.2519236922483</v>
+        <v>946.9139841393534</v>
       </c>
       <c r="E9" t="n">
-        <v>907.329243916038</v>
+        <v>921.6811194388011</v>
       </c>
     </row>
     <row r="10">
@@ -2668,16 +2668,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.8806026365348</v>
+        <v>986.8990583804143</v>
       </c>
       <c r="C10" t="n">
-        <v>37.3309481580995</v>
+        <v>64.8216853376762</v>
       </c>
       <c r="D10" t="n">
-        <v>977.8129818997746</v>
+        <v>1012.827732515485</v>
       </c>
       <c r="E10" t="n">
-        <v>947.948223373295</v>
+        <v>960.9703842453439</v>
       </c>
     </row>
     <row r="11">
@@ -2687,16 +2687,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1002.916195856874</v>
+        <v>1007.574952919021</v>
       </c>
       <c r="C11" t="n">
-        <v>62.21006638005013</v>
+        <v>76.53986458537075</v>
       </c>
       <c r="D11" t="n">
-        <v>1027.800222408894</v>
+        <v>1038.190898753169</v>
       </c>
       <c r="E11" t="n">
-        <v>978.0321693048537</v>
+        <v>976.9590070848724</v>
       </c>
     </row>
     <row r="12">
@@ -2706,16 +2706,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1057.2934086629</v>
+        <v>1061.132580037665</v>
       </c>
       <c r="C12" t="n">
-        <v>62.44363835460361</v>
+        <v>107.2998681449497</v>
       </c>
       <c r="D12" t="n">
-        <v>1082.270864004742</v>
+        <v>1104.052527295645</v>
       </c>
       <c r="E12" t="n">
-        <v>1032.315953321059</v>
+        <v>1018.212632779685</v>
       </c>
     </row>
   </sheetData>
@@ -2828,16 +2828,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1048.773259472407</v>
+        <v>1048.92911665988</v>
       </c>
       <c r="C5" t="n">
-        <v>17.00495285125679</v>
+        <v>16.62698878540185</v>
       </c>
       <c r="D5" t="n">
-        <v>1055.575240612909</v>
+        <v>1055.579912174041</v>
       </c>
       <c r="E5" t="n">
-        <v>1041.971278331904</v>
+        <v>1042.278321145719</v>
       </c>
     </row>
     <row r="6">
@@ -2847,16 +2847,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1060.877437375067</v>
+        <v>1059.695541797978</v>
       </c>
       <c r="C6" t="n">
-        <v>4.729729921829877</v>
+        <v>4.737251106822632</v>
       </c>
       <c r="D6" t="n">
-        <v>1062.769329343799</v>
+        <v>1061.590442240707</v>
       </c>
       <c r="E6" t="n">
-        <v>1058.985545406335</v>
+        <v>1057.800641355249</v>
       </c>
     </row>
     <row r="7">
@@ -2866,16 +2866,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1173.164287416345</v>
+        <v>1174.319264711847</v>
       </c>
       <c r="C7" t="n">
-        <v>25.7568813850438</v>
+        <v>27.14871825379795</v>
       </c>
       <c r="D7" t="n">
-        <v>1183.467039970363</v>
+        <v>1185.178752013366</v>
       </c>
       <c r="E7" t="n">
-        <v>1162.861534862328</v>
+        <v>1163.459777410328</v>
       </c>
     </row>
     <row r="8">
@@ -2904,54 +2904,54 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1257.531224655312</v>
+        <v>1218.701865369019</v>
       </c>
       <c r="C9" t="n">
-        <v>55.61871368653951</v>
+        <v>43.62247149522346</v>
       </c>
       <c r="D9" t="n">
-        <v>1279.778710129928</v>
+        <v>1236.150853967108</v>
       </c>
       <c r="E9" t="n">
-        <v>1235.283739180696</v>
+        <v>1201.252876770929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DecisionTreeClassifier</t>
+          <t>RandomForestClassifier</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1343.139172749392</v>
+        <v>1345.985725871857</v>
       </c>
       <c r="C10" t="n">
-        <v>12.26672048372613</v>
+        <v>47.35632486160821</v>
       </c>
       <c r="D10" t="n">
-        <v>1348.045860942882</v>
+        <v>1364.9282558165</v>
       </c>
       <c r="E10" t="n">
-        <v>1338.232484555901</v>
+        <v>1327.043195927214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RandomForestClassifier</t>
+          <t xml:space="preserve"> DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1345.993511759935</v>
+        <v>1349.001135442011</v>
       </c>
       <c r="C11" t="n">
-        <v>39.67661042102908</v>
+        <v>33.14764789587426</v>
       </c>
       <c r="D11" t="n">
-        <v>1361.864155928347</v>
+        <v>1362.260194600361</v>
       </c>
       <c r="E11" t="n">
-        <v>1330.122867591523</v>
+        <v>1335.742076283662</v>
       </c>
     </row>
     <row r="12">
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1371.953358617592</v>
+        <v>1364.330830699444</v>
       </c>
       <c r="C12" t="n">
-        <v>25.69537864974926</v>
+        <v>20.63014183101523</v>
       </c>
       <c r="D12" t="n">
-        <v>1382.231510077492</v>
+        <v>1372.58288743185</v>
       </c>
       <c r="E12" t="n">
-        <v>1361.675207157693</v>
+        <v>1356.078773967038</v>
       </c>
     </row>
   </sheetData>
